--- a/APPSHEET/EXCEL/habitacion_estado_melo1.xlsx
+++ b/APPSHEET/EXCEL/habitacion_estado_melo1.xlsx
@@ -986,7 +986,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1051,7 +1051,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1116,7 +1116,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1181,7 +1181,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1571,7 +1571,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1618,7 +1618,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">23</t>
           </r>
         </is>
       </c>
@@ -1627,7 +1627,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">23</t>
           </r>
         </is>
       </c>
@@ -1636,7 +1636,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PENTHOUSE</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1683,7 +1683,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">24</t>
           </r>
         </is>
       </c>
@@ -1692,7 +1692,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">24</t>
           </r>
         </is>
       </c>
@@ -1701,7 +1701,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1748,7 +1748,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -1757,7 +1757,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -1766,7 +1766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1813,7 +1813,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
@@ -1822,7 +1822,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
@@ -1831,7 +1831,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1872,144 +1872,14 @@
         </is>
       </c>
     </row>
-    <row r="28" customHeight="1" ht="20">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">28</t>
-          </r>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">28</t>
-          </r>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SUIT</t>
-          </r>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LIBRE</t>
-          </r>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">.</t>
-          </r>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="29" customHeight="1" ht="20">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">29</t>
-          </r>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">29</t>
-          </r>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SUIT</t>
-          </r>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">LIBRE</t>
-          </r>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">.</t>
-          </r>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="30" customHeight="1" ht="575">
-      <c r="A30" s="2" t="inlineStr"/>
-      <c r="B30" s="2" t="inlineStr"/>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
+    <row r="28" customHeight="1" ht="575">
+      <c r="A28" s="2" t="inlineStr"/>
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
